--- a/Check.xlsx
+++ b/Check.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="149">
   <si>
     <t>№</t>
   </si>
@@ -290,9 +290,6 @@
   </si>
   <si>
     <t>При нажатии OK в диалоговом окне удаления новость удаляется</t>
-  </si>
-  <si>
-    <t>нет</t>
   </si>
   <si>
     <t>При нажатии Cancel в диалоговом окне удаления новость не удаляется</t>
@@ -2210,9 +2207,7 @@
         <v>11</v>
       </c>
       <c r="G44" s="26"/>
-      <c r="H44" s="52" t="s">
-        <v>93</v>
-      </c>
+      <c r="H44" s="52"/>
     </row>
     <row r="45">
       <c r="A45" s="22">
@@ -2221,7 +2216,7 @@
       <c r="B45" s="54"/>
       <c r="C45" s="36"/>
       <c r="D45" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E45" s="24" t="s">
         <v>14</v>
@@ -2230,9 +2225,7 @@
         <v>11</v>
       </c>
       <c r="G45" s="26"/>
-      <c r="H45" s="52" t="s">
-        <v>93</v>
-      </c>
+      <c r="H45" s="52"/>
     </row>
     <row r="46">
       <c r="A46" s="22">
@@ -2241,7 +2234,7 @@
       <c r="B46" s="54"/>
       <c r="C46" s="37"/>
       <c r="D46" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>10</v>
@@ -2250,9 +2243,7 @@
         <v>11</v>
       </c>
       <c r="G46" s="31"/>
-      <c r="H46" s="43" t="s">
-        <v>93</v>
-      </c>
+      <c r="H46" s="43"/>
     </row>
     <row r="47">
       <c r="A47" s="22">
@@ -2260,10 +2251,10 @@
       </c>
       <c r="B47" s="54"/>
       <c r="C47" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" s="58" t="s">
         <v>96</v>
-      </c>
-      <c r="D47" s="58" t="s">
-        <v>97</v>
       </c>
       <c r="E47" s="19" t="s">
         <v>14</v>
@@ -2273,7 +2264,7 @@
       </c>
       <c r="G47" s="18"/>
       <c r="H47" s="51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48">
@@ -2283,7 +2274,7 @@
       <c r="B48" s="54"/>
       <c r="C48" s="36"/>
       <c r="D48" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E48" s="24" t="s">
         <v>14</v>
@@ -2292,9 +2283,7 @@
         <v>11</v>
       </c>
       <c r="G48" s="26"/>
-      <c r="H48" s="52" t="s">
-        <v>93</v>
-      </c>
+      <c r="H48" s="52"/>
     </row>
     <row r="49">
       <c r="A49" s="22">
@@ -2303,7 +2292,7 @@
       <c r="B49" s="54"/>
       <c r="C49" s="36"/>
       <c r="D49" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E49" s="24" t="s">
         <v>14</v>
@@ -2312,9 +2301,7 @@
         <v>11</v>
       </c>
       <c r="G49" s="26"/>
-      <c r="H49" s="52" t="s">
-        <v>93</v>
-      </c>
+      <c r="H49" s="52"/>
     </row>
     <row r="50">
       <c r="A50" s="22">
@@ -2323,7 +2310,7 @@
       <c r="B50" s="54"/>
       <c r="C50" s="36"/>
       <c r="D50" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E50" s="24" t="s">
         <v>14</v>
@@ -2332,9 +2319,7 @@
         <v>11</v>
       </c>
       <c r="G50" s="26"/>
-      <c r="H50" s="52" t="s">
-        <v>93</v>
-      </c>
+      <c r="H50" s="52"/>
     </row>
     <row r="51">
       <c r="A51" s="22">
@@ -2343,7 +2328,7 @@
       <c r="B51" s="54"/>
       <c r="C51" s="36"/>
       <c r="D51" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E51" s="24" t="s">
         <v>14</v>
@@ -2352,9 +2337,7 @@
         <v>11</v>
       </c>
       <c r="G51" s="26"/>
-      <c r="H51" s="52" t="s">
-        <v>93</v>
-      </c>
+      <c r="H51" s="52"/>
     </row>
     <row r="52">
       <c r="A52" s="22">
@@ -2363,7 +2346,7 @@
       <c r="B52" s="54"/>
       <c r="C52" s="36"/>
       <c r="D52" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E52" s="24" t="s">
         <v>14</v>
@@ -2372,9 +2355,7 @@
         <v>11</v>
       </c>
       <c r="G52" s="26"/>
-      <c r="H52" s="52" t="s">
-        <v>93</v>
-      </c>
+      <c r="H52" s="52"/>
     </row>
     <row r="53">
       <c r="A53" s="22">
@@ -2383,7 +2364,7 @@
       <c r="B53" s="54"/>
       <c r="C53" s="36"/>
       <c r="D53" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E53" s="24" t="s">
         <v>14</v>
@@ -2392,10 +2373,10 @@
         <v>24</v>
       </c>
       <c r="G53" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="H53" s="51" t="s">
         <v>105</v>
-      </c>
-      <c r="H53" s="51" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="54">
@@ -2405,7 +2386,7 @@
       <c r="B54" s="54"/>
       <c r="C54" s="36"/>
       <c r="D54" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E54" s="24" t="s">
         <v>14</v>
@@ -2414,9 +2395,7 @@
         <v>11</v>
       </c>
       <c r="G54" s="26"/>
-      <c r="H54" s="51" t="s">
-        <v>93</v>
-      </c>
+      <c r="H54" s="51"/>
     </row>
     <row r="55">
       <c r="A55" s="22">
@@ -2425,7 +2404,7 @@
       <c r="B55" s="54"/>
       <c r="C55" s="36"/>
       <c r="D55" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E55" s="24" t="s">
         <v>14</v>
@@ -2434,9 +2413,7 @@
         <v>11</v>
       </c>
       <c r="G55" s="26"/>
-      <c r="H55" s="51" t="s">
-        <v>93</v>
-      </c>
+      <c r="H55" s="51"/>
     </row>
     <row r="56">
       <c r="A56" s="22">
@@ -2445,7 +2422,7 @@
       <c r="B56" s="54"/>
       <c r="C56" s="36"/>
       <c r="D56" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E56" s="24" t="s">
         <v>10</v>
@@ -2454,9 +2431,7 @@
         <v>11</v>
       </c>
       <c r="G56" s="26"/>
-      <c r="H56" s="51" t="s">
-        <v>93</v>
-      </c>
+      <c r="H56" s="51"/>
     </row>
     <row r="57">
       <c r="A57" s="22">
@@ -2465,7 +2440,7 @@
       <c r="B57" s="54"/>
       <c r="C57" s="36"/>
       <c r="D57" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E57" s="24" t="s">
         <v>48</v>
@@ -2475,7 +2450,7 @@
       </c>
       <c r="G57" s="26"/>
       <c r="H57" s="51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58">
@@ -2485,7 +2460,7 @@
       <c r="B58" s="54"/>
       <c r="C58" s="36"/>
       <c r="D58" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E58" s="24" t="s">
         <v>48</v>
@@ -2495,7 +2470,7 @@
       </c>
       <c r="G58" s="26"/>
       <c r="H58" s="51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59">
@@ -2505,7 +2480,7 @@
       <c r="B59" s="54"/>
       <c r="C59" s="36"/>
       <c r="D59" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E59" s="24" t="s">
         <v>14</v>
@@ -2514,10 +2489,10 @@
         <v>24</v>
       </c>
       <c r="G59" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="H59" s="51" t="s">
         <v>115</v>
-      </c>
-      <c r="H59" s="51" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="60">
@@ -2527,7 +2502,7 @@
       <c r="B60" s="54"/>
       <c r="C60" s="36"/>
       <c r="D60" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E60" s="24" t="s">
         <v>48</v>
@@ -2537,7 +2512,7 @@
       </c>
       <c r="G60" s="26"/>
       <c r="H60" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61">
@@ -2547,7 +2522,7 @@
       <c r="B61" s="54"/>
       <c r="C61" s="37"/>
       <c r="D61" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>48</v>
@@ -2557,7 +2532,7 @@
       </c>
       <c r="G61" s="31"/>
       <c r="H61" s="50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62">
@@ -2569,7 +2544,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E62" s="41" t="s">
         <v>14</v>
@@ -2578,9 +2553,7 @@
         <v>11</v>
       </c>
       <c r="G62" s="40"/>
-      <c r="H62" s="43" t="s">
-        <v>93</v>
-      </c>
+      <c r="H62" s="43"/>
     </row>
     <row r="63">
       <c r="A63" s="22">
@@ -2591,7 +2564,7 @@
         <v>58</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E63" s="19" t="s">
         <v>14</v>
@@ -2601,7 +2574,7 @@
       </c>
       <c r="G63" s="18"/>
       <c r="H63" s="51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64">
@@ -2611,7 +2584,7 @@
       <c r="B64" s="54"/>
       <c r="C64" s="36"/>
       <c r="D64" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E64" s="24" t="s">
         <v>14</v>
@@ -2620,9 +2593,7 @@
         <v>11</v>
       </c>
       <c r="G64" s="26"/>
-      <c r="H64" s="51" t="s">
-        <v>93</v>
-      </c>
+      <c r="H64" s="51"/>
     </row>
     <row r="65">
       <c r="A65" s="22">
@@ -2631,7 +2602,7 @@
       <c r="B65" s="54"/>
       <c r="C65" s="36"/>
       <c r="D65" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E65" s="24" t="s">
         <v>14</v>
@@ -2640,9 +2611,7 @@
         <v>11</v>
       </c>
       <c r="G65" s="26"/>
-      <c r="H65" s="51" t="s">
-        <v>93</v>
-      </c>
+      <c r="H65" s="51"/>
     </row>
     <row r="66">
       <c r="A66" s="22">
@@ -2651,7 +2620,7 @@
       <c r="B66" s="54"/>
       <c r="C66" s="36"/>
       <c r="D66" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E66" s="24" t="s">
         <v>14</v>
@@ -2660,9 +2629,7 @@
         <v>11</v>
       </c>
       <c r="G66" s="26"/>
-      <c r="H66" s="51" t="s">
-        <v>93</v>
-      </c>
+      <c r="H66" s="51"/>
     </row>
     <row r="67">
       <c r="A67" s="22">
@@ -2671,7 +2638,7 @@
       <c r="B67" s="54"/>
       <c r="C67" s="36"/>
       <c r="D67" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E67" s="24" t="s">
         <v>48</v>
@@ -2680,10 +2647,10 @@
         <v>24</v>
       </c>
       <c r="G67" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="H67" s="51" t="s">
         <v>128</v>
-      </c>
-      <c r="H67" s="51" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="68">
@@ -2693,7 +2660,7 @@
       <c r="B68" s="54"/>
       <c r="C68" s="37"/>
       <c r="D68" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E68" s="46" t="s">
         <v>10</v>
@@ -2702,10 +2669,10 @@
         <v>24</v>
       </c>
       <c r="G68" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="H68" s="50" t="s">
         <v>131</v>
-      </c>
-      <c r="H68" s="50" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="69">
@@ -2714,10 +2681,10 @@
       </c>
       <c r="B69" s="54"/>
       <c r="C69" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="D69" s="61" t="s">
         <v>133</v>
-      </c>
-      <c r="D69" s="61" t="s">
-        <v>134</v>
       </c>
       <c r="E69" s="62" t="s">
         <v>14</v>
@@ -2726,9 +2693,7 @@
         <v>11</v>
       </c>
       <c r="G69" s="18"/>
-      <c r="H69" s="52" t="s">
-        <v>93</v>
-      </c>
+      <c r="H69" s="52"/>
     </row>
     <row r="70">
       <c r="A70" s="60">
@@ -2737,7 +2702,7 @@
       <c r="B70" s="54"/>
       <c r="C70" s="36"/>
       <c r="D70" s="61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E70" s="64" t="s">
         <v>14</v>
@@ -2746,9 +2711,7 @@
         <v>11</v>
       </c>
       <c r="G70" s="26"/>
-      <c r="H70" s="52" t="s">
-        <v>93</v>
-      </c>
+      <c r="H70" s="52"/>
     </row>
     <row r="71">
       <c r="A71" s="65">
@@ -2757,7 +2720,7 @@
       <c r="B71" s="66"/>
       <c r="C71" s="67"/>
       <c r="D71" s="61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E71" s="68" t="s">
         <v>14</v>
@@ -2766,22 +2729,20 @@
         <v>11</v>
       </c>
       <c r="G71" s="55"/>
-      <c r="H71" s="43" t="s">
-        <v>93</v>
-      </c>
+      <c r="H71" s="43"/>
     </row>
     <row r="72">
       <c r="A72" s="69">
         <v>74.0</v>
       </c>
       <c r="B72" s="70" t="s">
+        <v>136</v>
+      </c>
+      <c r="C72" s="70" t="s">
         <v>137</v>
       </c>
-      <c r="C72" s="70" t="s">
+      <c r="D72" s="71" t="s">
         <v>138</v>
-      </c>
-      <c r="D72" s="71" t="s">
-        <v>139</v>
       </c>
       <c r="E72" s="72" t="s">
         <v>14</v>
@@ -2791,7 +2752,7 @@
       </c>
       <c r="G72" s="73"/>
       <c r="H72" s="51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73">
@@ -2801,7 +2762,7 @@
       <c r="B73" s="17"/>
       <c r="C73" s="29"/>
       <c r="D73" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E73" s="74" t="s">
         <v>14</v>
@@ -2810,9 +2771,7 @@
         <v>11</v>
       </c>
       <c r="G73" s="31"/>
-      <c r="H73" s="43" t="s">
-        <v>93</v>
-      </c>
+      <c r="H73" s="43"/>
     </row>
     <row r="74">
       <c r="A74" s="7">
@@ -2820,10 +2779,10 @@
       </c>
       <c r="B74" s="17"/>
       <c r="C74" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D74" s="76" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E74" s="77" t="s">
         <v>14</v>
@@ -2832,9 +2791,7 @@
         <v>11</v>
       </c>
       <c r="G74" s="18"/>
-      <c r="H74" s="52" t="s">
-        <v>93</v>
-      </c>
+      <c r="H74" s="52"/>
     </row>
     <row r="75">
       <c r="A75" s="79">
@@ -2842,7 +2799,7 @@
       </c>
       <c r="B75" s="17"/>
       <c r="D75" s="80" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E75" s="81" t="s">
         <v>14</v>
@@ -2851,9 +2808,7 @@
         <v>11</v>
       </c>
       <c r="G75" s="82"/>
-      <c r="H75" s="52" t="s">
-        <v>93</v>
-      </c>
+      <c r="H75" s="52"/>
     </row>
     <row r="76">
       <c r="A76" s="79">
@@ -2862,7 +2817,7 @@
       <c r="B76" s="29"/>
       <c r="C76" s="28"/>
       <c r="D76" s="83" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E76" s="84" t="s">
         <v>14</v>
@@ -2871,20 +2826,18 @@
         <v>11</v>
       </c>
       <c r="G76" s="13"/>
-      <c r="H76" s="43" t="s">
-        <v>93</v>
-      </c>
+      <c r="H76" s="43"/>
     </row>
     <row r="77">
       <c r="A77" s="15">
         <v>79.0</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C77" s="17"/>
       <c r="D77" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E77" s="19" t="s">
         <v>14</v>
@@ -2893,11 +2846,9 @@
         <v>24</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="H77" s="52" t="s">
-        <v>93</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="H77" s="52"/>
     </row>
     <row r="78">
       <c r="A78" s="22">
@@ -2905,7 +2856,7 @@
       </c>
       <c r="C78" s="17"/>
       <c r="D78" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E78" s="24" t="s">
         <v>14</v>
@@ -2914,11 +2865,9 @@
         <v>24</v>
       </c>
       <c r="G78" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="H78" s="52" t="s">
-        <v>93</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="H78" s="52"/>
     </row>
     <row r="79">
       <c r="A79" s="7">
@@ -2927,7 +2876,7 @@
       <c r="B79" s="28"/>
       <c r="C79" s="29"/>
       <c r="D79" s="31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E79" s="11" t="s">
         <v>14</v>
@@ -2936,9 +2885,7 @@
         <v>11</v>
       </c>
       <c r="G79" s="31"/>
-      <c r="H79" s="43" t="s">
-        <v>93</v>
-      </c>
+      <c r="H79" s="43"/>
     </row>
     <row r="80">
       <c r="B80" s="85"/>
